--- a/lit survey.xlsx
+++ b/lit survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc54871c4ab24f22/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{D3F8387E-4993-4864-A59B-BF99192C434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9020942E-12C8-43C3-9A21-FEB262B28A3D}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{D3F8387E-4993-4864-A59B-BF99192C434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767B7E0C-2D91-44B5-8F0B-0957E6C3821E}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" activeTab="1" xr2:uid="{9E4FA13A-7049-4978-B038-153B624A362F}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" xr2:uid="{9E4FA13A-7049-4978-B038-153B624A362F}"/>
   </bookViews>
   <sheets>
     <sheet name="ICP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>Improved Object Pose Estimation via Deep Pre-touch Sensing</t>
   </si>
@@ -440,6 +440,63 @@
   </si>
   <si>
     <t>active push for perception</t>
+  </si>
+  <si>
+    <t>A Dexterous Hand-Arm Teleoperation System Based on Hand Pose Estimation and Active Vision</t>
+  </si>
+  <si>
+    <t>active vison</t>
+  </si>
+  <si>
+    <t>Deep Active Cross-Modal Visuo-Tactile Transfer Learning for Robotic Object Recognition</t>
+  </si>
+  <si>
+    <t>AcTExplore: Active Tactile Exploration on Unknown Objects</t>
+  </si>
+  <si>
+    <t>active tactile</t>
+  </si>
+  <si>
+    <t>A Bayesian Framework for Active Tactile ObjectRecognition, Pose Estimation and Shape TransferLearning</t>
+  </si>
+  <si>
+    <t>vision as initial pose, single-time active contact selection</t>
+  </si>
+  <si>
+    <t>Using Collocated Vision and Tactile Sensors for Visual Servoing and Localization</t>
+  </si>
+  <si>
+    <t>AvTF: A visual-tactile fingertip with active sensing and manipulation</t>
+  </si>
+  <si>
+    <t>in-hand active visual-tactile estimation</t>
+  </si>
+  <si>
+    <t>Cross-Source ICP</t>
+  </si>
+  <si>
+    <t>Cross-source Point Cloud Registration: Challenges, Progress and Prospects</t>
+  </si>
+  <si>
+    <t>DART: Dense Articulated Real-Time Tracking</t>
+  </si>
+  <si>
+    <t>physical constrain with SDF</t>
+  </si>
+  <si>
+    <t>The Application of Particle Filtering to Grasping Acquisition with Visual Occlusion and Tactile Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tactile with non-penetration, Mixed Nonlinear Complementarity problem </t>
+  </si>
+  <si>
+    <t>Depth-Based Tracking with Physical Constraints for Robot Manipulation</t>
+  </si>
+  <si>
+    <t>Estimating 6D Object Poses with Temporal Motion Reasoning for Robot Grasping in Cluttered Scenes</t>
+  </si>
+  <si>
+    <t>temporal</t>
   </si>
 </sst>
 </file>
@@ -491,13 +548,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -837,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E7BE0-D766-455A-B90E-5AEF52059C4B}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="54.29296875" customWidth="1"/>
+    <col min="1" max="1" width="44.05859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
@@ -937,7 +993,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -945,7 +1001,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
@@ -961,9 +1017,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -985,7 +1039,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
@@ -993,7 +1047,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -1025,15 +1079,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
@@ -1057,7 +1109,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
       <c r="B27" t="s">
@@ -1246,6 +1298,40 @@
       </c>
       <c r="B50" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B57" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1255,23 +1341,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC61E05-3BAE-478D-975A-EFB7CCB194DD}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="51.5859375" customWidth="1"/>
-    <col min="2" max="2" width="8.9375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>72</v>
       </c>
       <c r="M1" t="s">
@@ -1282,7 +1367,7 @@
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1290,7 +1375,7 @@
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1298,7 +1383,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1356,6 +1441,70 @@
       </c>
       <c r="B11" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
